--- a/Spreadsheet Applications/Creating PivotCharts and PivotTables/First Aid.xlsx
+++ b/Spreadsheet Applications/Creating PivotCharts and PivotTables/First Aid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating PivotCharts and PivotTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{C5D53F65-D7FA-4372-9BCD-9395AC8270B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9929C102-920E-409D-9919-1687AAA78B99}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C5D53F65-D7FA-4372-9BCD-9395AC8270B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01448AD3-D50F-44E6-BDEA-8ABB76474568}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AA866287-440F-4DE1-B3C4-B2F713F722D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AA866287-440F-4DE1-B3C4-B2F713F722D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Suppliers Chart" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -138,13 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +810,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -872,6 +870,101 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="146"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="147"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="148"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="149"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="150"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -1838,6 +1931,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1845,7 +1939,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -2551,10 +2644,13 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C918C4A2-03E6-4ADE-AF4C-6FFA8426E635}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -2664,7 +2760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C1B46E-61F0-4EC0-84EA-013EE8E358EB}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C1B46E-61F0-4EC0-84EA-013EE8E358EB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -2707,7 +2803,7 @@
   <dataFields count="1">
     <dataField name="Sum of Quantity" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="11">
     <chartFormat chart="3" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2773,6 +2869,66 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="146">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="147">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="148">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="149">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="150">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -3140,7 +3296,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3167,7 +3323,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>4419</v>
       </c>
     </row>
@@ -3175,7 +3331,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>3397</v>
       </c>
     </row>
@@ -3183,7 +3339,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>2938</v>
       </c>
     </row>
@@ -3191,7 +3347,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2879</v>
       </c>
     </row>
@@ -3199,7 +3355,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>2626</v>
       </c>
     </row>
@@ -3207,13 +3363,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>16259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
